--- a/output_data/2_auditory_motor.xlsx
+++ b/output_data/2_auditory_motor.xlsx
@@ -13,7 +13,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+  <si>
+    <t>run_num</t>
+  </si>
+  <si>
+    <t>block_num</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>play_duration</t>
+  </si>
+  <si>
+    <t>ear</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>run_num</t>
+  </si>
+  <si>
+    <t>block_num</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>play_duration</t>
+  </si>
+  <si>
+    <t>ear</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
   <si>
     <t>run_num</t>
   </si>
@@ -66,7 +117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -75,13 +126,17 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -104,22 +159,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -130,16 +185,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>8.8881192000000002</v>
+        <v>8.9010200000000008</v>
       </c>
       <c r="D2" s="0">
-        <v>999</v>
+        <v>4.8230664999999995</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -150,16 +205,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="0">
-        <v>25.0562124</v>
+        <v>27.312757999999999</v>
       </c>
       <c r="D3" s="0">
         <v>999</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -170,16 +225,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="0">
-        <v>40.810735600000001</v>
+        <v>41.482644100000002</v>
       </c>
       <c r="D4" s="0">
-        <v>999</v>
+        <v>3.2773669999999981</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -190,16 +245,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="0">
-        <v>57.459958999999998</v>
+        <v>999</v>
       </c>
       <c r="D5" s="0">
         <v>999</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
